--- a/Income/LLY_inc.xlsx
+++ b/Income/LLY_inc.xlsx
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>5622500000.0</v>
+        <v>5622501000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6058000000.0</v>
+        <v>6058001000.0</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5466101000.0</v>
@@ -2812,10 +2812,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>7702600000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>8174000000.0</v>
@@ -3069,19 +3067,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>6.68</v>
+        <v>6.6778</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>6.79</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>6.06</v>
+        <v>6.0576</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>6.1</v>
+        <v>6.0976</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>5.99</v>
+        <v>5.9876</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>4.96</v>
@@ -3396,10 +3394,8 @@
           <t>EPS (Basic, Consolidated)</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>6.7115</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>6.8239</v>
@@ -3726,22 +3722,20 @@
           <t>EPS (Basic, from Continuous Ops)</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>6.7076</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>6.82</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>6.09</v>
+        <v>6.0937</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>6.13</v>
+        <v>6.1337</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>6.01</v>
+        <v>6.0137</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>4.98</v>
@@ -4319,16 +4313,16 @@
         <v>0.3331</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.3175</v>
+        <v>0.311</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.3203</v>
+        <v>0.3137</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.3177</v>
+        <v>0.3111</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2849</v>
+        <v>0.2781</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.2615</v>
